--- a/reportes.xlsx
+++ b/reportes.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="MCSA - SQL Server 2012  " sheetId="1" r:id="rId1"/>
+    <sheet name="MCITP WINDOWS SERVER 2008  " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Diegosalas_14@hotmail.com</t>
   </si>
@@ -68,33 +69,6 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>gmanrique.422@gmail.com</t>
-  </si>
-  <si>
-    <t>Rc@centeno.pe</t>
-  </si>
-  <si>
-    <t>jvargas@gnsys.pe</t>
-  </si>
-  <si>
-    <t>gamz109@hotmail.com</t>
-  </si>
-  <si>
-    <t>mauriciodata@gmail.com</t>
-  </si>
-  <si>
-    <t>alipazaga07@gmail.com</t>
-  </si>
-  <si>
-    <t>alfaroyan@gmail.com</t>
-  </si>
-  <si>
-    <t>luis.carlos.enciso.20@gmail.com</t>
-  </si>
-  <si>
-    <t>MCTS ASP.NET</t>
-  </si>
-  <si>
     <t>waldo_ugartino@yahoo.com</t>
   </si>
   <si>
@@ -102,6 +76,129 @@
   </si>
   <si>
     <t>MCITP WINDOWS SERVER 2008</t>
+  </si>
+  <si>
+    <t>arnoldbhg107@gmail.com</t>
+  </si>
+  <si>
+    <t>fgcgerente@outlook.com</t>
+  </si>
+  <si>
+    <t>rubenparejas@gmail.com</t>
+  </si>
+  <si>
+    <t>johnnyllanos@gmail.com</t>
+  </si>
+  <si>
+    <t>aparcana.andres@gmail.com</t>
+  </si>
+  <si>
+    <t>aquaventus@outlook.com</t>
+  </si>
+  <si>
+    <t>mi_la_maps@hotmail.com</t>
+  </si>
+  <si>
+    <t>pebcc12@gmail.com</t>
+  </si>
+  <si>
+    <t>coldfran@hotmail.com</t>
+  </si>
+  <si>
+    <t>aybar_ftw@hotmail.com</t>
+  </si>
+  <si>
+    <t>jomichel2003@hotmail.com</t>
+  </si>
+  <si>
+    <t>jorgeluisfloresgonzales@gmail.com</t>
+  </si>
+  <si>
+    <t>j_ams12@hotmail.com</t>
+  </si>
+  <si>
+    <t>outos@continental.edu.pe</t>
+  </si>
+  <si>
+    <t>jtorresc1980@gmail.com</t>
+  </si>
+  <si>
+    <t>ijann_@outlook.com</t>
+  </si>
+  <si>
+    <t>seband-17@hotmail.com</t>
+  </si>
+  <si>
+    <t>fdu3090@gmail.com</t>
+  </si>
+  <si>
+    <t>daniel_mig@hotmail.com</t>
+  </si>
+  <si>
+    <t>fromeromejia@gmail.com</t>
+  </si>
+  <si>
+    <t>damata20@hotmail.com</t>
+  </si>
+  <si>
+    <t>MANUELMANRIQUE@OUTLOOK.COM</t>
+  </si>
+  <si>
+    <t>diazjorge231@yahoo.com</t>
+  </si>
+  <si>
+    <t>mrcos22@gmail.com</t>
+  </si>
+  <si>
+    <t>ladce@hotmail.com</t>
+  </si>
+  <si>
+    <t>daoorellana@gmail.com</t>
+  </si>
+  <si>
+    <t>rosario_26_94@hotmail.com</t>
+  </si>
+  <si>
+    <t>mirkosalinas@gmail.com</t>
+  </si>
+  <si>
+    <t>franciscom21@gmail.com</t>
+  </si>
+  <si>
+    <t>jhampiertapia@gmail.com</t>
+  </si>
+  <si>
+    <t>fcortezsa@gmail.com</t>
+  </si>
+  <si>
+    <t>AL_TO_C@MSN.COM</t>
+  </si>
+  <si>
+    <t>alexlr2003@hotmail.com</t>
+  </si>
+  <si>
+    <t>williamlpm@hotmail.com</t>
+  </si>
+  <si>
+    <t>jorge_gutierrezd@hotmail.com</t>
+  </si>
+  <si>
+    <t>jorge12745@hotmail.com</t>
+  </si>
+  <si>
+    <t>ing-barrera084@hotmail.com</t>
+  </si>
+  <si>
+    <t>eldy_19@hotmail.com</t>
+  </si>
+  <si>
+    <t>milerdiazzevallos@gmail.com</t>
+  </si>
+  <si>
+    <t>lis28_169@hotmail.com</t>
+  </si>
+  <si>
+    <t>carutaype@yahoo.es</t>
   </si>
 </sst>
 </file>
@@ -131,18 +228,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -169,11 +260,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -195,11 +283,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,269 +569,570 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D39"/>
+  <dimension ref="B3:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>350</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>550</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
         <v>525</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
         <v>675</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
         <v>700</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>625</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>825</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
         <v>550</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
         <v>300</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
         <v>225</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
         <v>125</v>
       </c>
     </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>550</v>
+      </c>
+    </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
-        <v>13</v>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4">
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>14</v>
+      <c r="B24" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
-        <v>220</v>
+      <c r="B25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4">
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2">
-        <v>140</v>
+      <c r="B26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>17</v>
+      <c r="B27" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
-        <v>500</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>18</v>
+      <c r="B28" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
-        <v>180</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2">
-        <v>40</v>
+      <c r="B29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>20</v>
+      <c r="B30" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
-        <v>260</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2">
-        <v>180</v>
+      <c r="B31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2">
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4">
+        <v>250</v>
+      </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10" t="s">
-        <v>13</v>
+      <c r="B37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4">
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>23</v>
+      <c r="B38" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2">
+        <v>650</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
         <v>201.9</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
         <v>788.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reportes.xlsx
+++ b/reportes.xlsx
@@ -228,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +247,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -260,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -280,13 +286,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,11 +591,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -598,7 +607,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2"/>
@@ -607,7 +616,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3"/>
@@ -616,7 +625,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="2"/>
@@ -625,7 +634,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="4"/>
@@ -634,7 +643,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="3"/>
@@ -643,7 +652,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="2"/>
@@ -652,7 +661,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="3"/>
@@ -661,7 +670,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="2"/>
@@ -670,7 +679,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="4"/>
@@ -679,7 +688,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2"/>
@@ -688,7 +697,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="4"/>
@@ -697,7 +706,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="4"/>
@@ -706,7 +715,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="4"/>
@@ -715,7 +724,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2"/>
@@ -724,7 +733,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="2"/>
@@ -733,7 +742,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="3"/>
@@ -742,7 +751,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="4"/>
@@ -751,7 +760,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="4"/>
@@ -760,7 +769,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2"/>
@@ -769,7 +778,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="4"/>
@@ -778,7 +787,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="4"/>
@@ -787,7 +796,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="2"/>
@@ -796,7 +805,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="2"/>
@@ -805,7 +814,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="3"/>
@@ -814,7 +823,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="2"/>
@@ -823,7 +832,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="3"/>
@@ -832,7 +841,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="2"/>
@@ -841,7 +850,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="4"/>
@@ -850,7 +859,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="2"/>
@@ -859,7 +868,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="3"/>
@@ -868,7 +877,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="4"/>
@@ -877,7 +886,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="4"/>
@@ -886,7 +895,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="2"/>
@@ -895,7 +904,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="3"/>
@@ -904,7 +913,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="2"/>
@@ -913,7 +922,7 @@
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="3"/>
@@ -922,7 +931,7 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="2"/>
@@ -931,7 +940,7 @@
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="3"/>
@@ -940,7 +949,7 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C44" s="2"/>
@@ -949,7 +958,7 @@
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="4"/>
@@ -958,7 +967,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="4"/>
@@ -967,7 +976,7 @@
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="3"/>
@@ -976,7 +985,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="2"/>
@@ -985,7 +994,7 @@
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="3"/>
@@ -994,7 +1003,7 @@
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="2"/>
@@ -1003,7 +1012,7 @@
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C51" s="3"/>
@@ -1012,7 +1021,7 @@
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C52" s="4"/>
@@ -1021,7 +1030,7 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C53" s="2"/>
@@ -1030,7 +1039,7 @@
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C54" s="3"/>
@@ -1039,7 +1048,7 @@
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C55" s="2"/>
@@ -1048,7 +1057,7 @@
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C56" s="3"/>
@@ -1057,7 +1066,7 @@
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C57" s="2"/>
@@ -1066,7 +1075,7 @@
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C58" s="2"/>
@@ -1097,11 +1106,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
